--- a/va_facility_data_2025-02-20/Beaver County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Beaver%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Beaver County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Beaver%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6f32e82c51804056a742bf179c86f78f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdfe12efa0b9c4484817023f098946f10"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9353b78a365645b691e931697a9f407d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R754d90da9ba6462bb8a80676fc175e4b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcbbfc5a31a4e446ea5a25af761ca5723"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9e56fd2f062d49f99508ca31b9b3f003"/>
   </x:sheets>
 </x:workbook>
 </file>
